--- a/data/fund.xlsx
+++ b/data/fund.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratyusatripathy/my_work/fund_analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkt/my_work/fund_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A2242-BEE7-8E44-BC2C-2EC6055C24A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830B519-22BB-AE48-9C1E-71FF92B2B8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32640" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fund_assets" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="long_only_pms" sheetId="3" r:id="rId3"/>
     <sheet name="Factor_Correlation" sheetId="4" r:id="rId4"/>
     <sheet name="fund_new" sheetId="5" r:id="rId5"/>
-    <sheet name="time_series" sheetId="6" r:id="rId6"/>
+    <sheet name="extra" sheetId="7" r:id="rId6"/>
+    <sheet name="time_series" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -169,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
   <si>
     <t>Strategy</t>
   </si>
@@ -346,6 +347,9 @@
   </si>
   <si>
     <t>Prop Strat</t>
+  </si>
+  <si>
+    <t>Sharpe</t>
   </si>
 </sst>
 </file>
@@ -490,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -513,12 +517,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -568,6 +583,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,6 +600,102 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>359833</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4391213E-AD6F-752E-4E85-4AB6F8BB9545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7016750" y="1926167"/>
+          <a:ext cx="4582583" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Even when selecting five different strategies for the fund, we need to ensure the risk-return characteristics (Sharpe ratios) of these underlying funds remain similar while their sources of return are distinct.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>This approach provides flexibility to position our fund across the risk-adjusted return spectrum while maintaining comprehensive portfolio diversification.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>For example, if we can achieve a Sharpe ratio of approximately 1.4 for gold over a rolling 24-month period, we can increase gold's allocation during volatile periods without significantly compromising our risk-adjusted returns.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1942,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE83D0B2-2AA6-AD43-BCC5-0FA0A5FC5BF9}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1954,7 +2066,7 @@
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1991,8 +2103,11 @@
       <c r="L1" s="28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
         <v>50</v>
       </c>
@@ -2031,8 +2146,11 @@
       <c r="L2" s="33">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="35">
+        <v>1.1035206210541015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>20</v>
       </c>
@@ -2071,8 +2189,11 @@
       <c r="L3" s="33">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="35">
+        <v>1.4572693728058852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>23</v>
       </c>
@@ -2111,8 +2232,11 @@
       <c r="L4" s="33">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4" s="35">
+        <v>0.91980695080068076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>28</v>
       </c>
@@ -2151,8 +2275,11 @@
       <c r="L5" s="33">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5" s="35">
+        <v>0.74262430656357181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>31</v>
       </c>
@@ -2183,13 +2310,16 @@
         <v>0.1</v>
       </c>
       <c r="J6" s="33">
-        <v>4.3999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K6" s="31">
         <v>0.2</v>
       </c>
       <c r="L6" s="33">
         <v>0.3</v>
+      </c>
+      <c r="M6" s="35">
+        <v>1.0389610389610391</v>
       </c>
     </row>
   </sheetData>
@@ -2198,6 +2328,288 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9E3327-7873-3A4B-A1F2-6A472ECF8444}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="31">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="31">
+        <v>1</v>
+      </c>
+      <c r="F2" s="32">
+        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="33">
+        <f>1-I2/H2</f>
+        <v>0.28872692168151481</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0.13719263383038621</v>
+      </c>
+      <c r="I2" s="34">
+        <v>9.7581426987159547E-2</v>
+      </c>
+      <c r="J2" s="34">
+        <v>3.4055935403600468E-2</v>
+      </c>
+      <c r="K2" s="35">
+        <v>1.1816363626422931E-2</v>
+      </c>
+      <c r="L2" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="35">
+        <f>(I2-0.06)/J2</f>
+        <v>1.1035206210541015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="31">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="32">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="33">
+        <f t="shared" ref="G3:G6" si="1">1-I3/H3</f>
+        <v>0.18368529792734456</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.11552856090248451</v>
+      </c>
+      <c r="I3" s="34">
+        <v>9.4307662773994272E-2</v>
+      </c>
+      <c r="J3" s="34">
+        <v>2.3542430393590798E-2</v>
+      </c>
+      <c r="K3" s="36">
+        <v>5.5958172542916559E-2</v>
+      </c>
+      <c r="L3" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="35">
+        <f t="shared" ref="M3:M6" si="2">(I3-0.06)/J3</f>
+        <v>1.4572693728058852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="31">
+        <v>3</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="33">
+        <f t="shared" si="1"/>
+        <v>3.9600887218736336E-2</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0.27797769407376038</v>
+      </c>
+      <c r="I4" s="38">
+        <v>0.26696953076142099</v>
+      </c>
+      <c r="J4" s="39">
+        <v>0.22501409733994349</v>
+      </c>
+      <c r="K4" s="40">
+        <v>0.923412843893197</v>
+      </c>
+      <c r="L4" s="33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M4" s="35">
+        <f t="shared" si="2"/>
+        <v>0.91980695080068076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="31">
+        <v>4</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="33">
+        <f t="shared" si="1"/>
+        <v>0.12870414068540081</v>
+      </c>
+      <c r="H5" s="41">
+        <v>0.17723930026512161</v>
+      </c>
+      <c r="I5" s="42">
+        <v>0.15442786842881739</v>
+      </c>
+      <c r="J5" s="42">
+        <v>0.12715429268101119</v>
+      </c>
+      <c r="K5" s="36">
+        <v>-0.1536897073145545</v>
+      </c>
+      <c r="L5" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="35">
+        <f t="shared" si="2"/>
+        <v>0.74262430656357181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="31">
+        <v>5</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32">
+        <f>D6*E6</f>
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" si="1"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="H6" s="43">
+        <v>0.17</v>
+      </c>
+      <c r="I6" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="33">
+        <v>3.85E-2</v>
+      </c>
+      <c r="K6" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="M6" s="35">
+        <f t="shared" si="2"/>
+        <v>1.0389610389610391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E8390F-71A1-E748-9A65-B35DC245C22A}">
   <dimension ref="A1:F56"/>
   <sheetViews>
